--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579046.0894340212</v>
+        <v>576347.0373401133</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>61.57494829067528</v>
       </c>
       <c r="H2" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>140.7094048023552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>168.9930690570635</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>176.0166538343225</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
-        <v>90.73780352948826</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094033</v>
+        <v>87.8412925809404</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>136.5335673127885</v>
       </c>
       <c r="T5" t="n">
-        <v>31.44188763225137</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>226.9681473733879</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>153.1772387965565</v>
+        <v>49.40169138872541</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6415446830818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841044</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224376</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>140.0697787646034</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3045852332498</v>
       </c>
       <c r="U6" t="n">
         <v>225.8294102072821</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5409427785071</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5404054555727</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502781</v>
+        <v>73.24771028932429</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.15003117566</v>
       </c>
       <c r="T7" t="n">
-        <v>12.99693697333359</v>
+        <v>221.8489350595716</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>97.42019225198209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5377921948941</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.90616225919158</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.73047180810662</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.18740254787073</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.6434959374205</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.42181357215826</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.0940871474026</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>63.8415564125921</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.3722917337062</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936201</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936195</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>39.39795577638932</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>212.5602966632236</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.79222725775186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337055</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>97.9841306222406</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471653</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301528</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703269</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407.0717515820915</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="C2" t="n">
-        <v>407.0717515820915</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="D2" t="n">
-        <v>407.0717515820915</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="E2" t="n">
-        <v>407.0717515820915</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656066</v>
+        <v>393.3574536167096</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897904</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985584</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201472</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201472</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201472</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036623</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036623</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036623</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="X2" t="n">
-        <v>549.2024635036623</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="Y2" t="n">
-        <v>407.0717515820915</v>
+        <v>589.7227393823979</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>254.4015891111996</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
         <v>15.0020469733056</v>
@@ -4413,16 +4413,16 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017064</v>
@@ -4437,22 +4437,22 @@
         <v>571.6362168389242</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389242</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389242</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="V3" t="n">
-        <v>571.6362168389242</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="W3" t="n">
-        <v>400.9361470843146</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="X3" t="n">
-        <v>400.9361470843146</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
         <v>15.0020469733056</v>
@@ -4489,49 +4489,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>261.744767637162</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830974</v>
+        <v>447.3950989318188</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777542</v>
+        <v>633.0454302264756</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143044</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846275</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846275</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="U4" t="n">
-        <v>655.0711509851444</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="V4" t="n">
-        <v>655.0711509851444</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W4" t="n">
-        <v>655.0711509851444</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>465.6513659686595</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145.4844422844112</v>
+        <v>531.2726948826555</v>
       </c>
       <c r="C5" t="n">
-        <v>145.4844422844112</v>
+        <v>531.2726948826555</v>
       </c>
       <c r="D5" t="n">
-        <v>145.4844422844112</v>
+        <v>531.2726948826555</v>
       </c>
       <c r="E5" t="n">
-        <v>145.4844422844112</v>
+        <v>145.4844422844113</v>
       </c>
       <c r="F5" t="n">
         <v>138.5389415352078</v>
       </c>
       <c r="G5" t="n">
-        <v>126.2947385020153</v>
+        <v>126.2947385020154</v>
       </c>
       <c r="H5" t="n">
-        <v>126.2947385020153</v>
+        <v>126.2947385020154</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742916</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620873</v>
+        <v>125.6123058620865</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405711</v>
+        <v>308.309172940571</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714458</v>
+        <v>571.862553571446</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672694</v>
+        <v>896.7859082672693</v>
       </c>
       <c r="N5" t="n">
         <v>1231.580670917813</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379521</v>
+        <v>1534.38261037952</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280671</v>
+        <v>1758.31605928067</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871458</v>
+        <v>1878.308006871456</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871458</v>
+        <v>1878.308006871456</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871458</v>
+        <v>1740.395312616115</v>
       </c>
       <c r="T5" t="n">
-        <v>1846.548524414638</v>
+        <v>1740.395312616115</v>
       </c>
       <c r="U5" t="n">
-        <v>1592.921075134987</v>
+        <v>1486.767863336464</v>
       </c>
       <c r="V5" t="n">
-        <v>1261.858187791417</v>
+        <v>1257.507108413849</v>
       </c>
       <c r="W5" t="n">
-        <v>909.0895325213028</v>
+        <v>904.7384531437353</v>
       </c>
       <c r="X5" t="n">
-        <v>535.6237742602229</v>
+        <v>531.2726948826555</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.4844422844112</v>
+        <v>531.2726948826555</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603.7116025653852</v>
+        <v>408.4544457641211</v>
       </c>
       <c r="C6" t="n">
-        <v>603.7116025653852</v>
+        <v>234.0014164829941</v>
       </c>
       <c r="D6" t="n">
-        <v>603.7116025653852</v>
+        <v>234.0014164829941</v>
       </c>
       <c r="E6" t="n">
-        <v>448.9871189324998</v>
+        <v>184.1007181105442</v>
       </c>
       <c r="F6" t="n">
-        <v>302.4525609593848</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4408996633425</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="H6" t="n">
-        <v>68.67527019020064</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742916</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="J6" t="n">
-        <v>71.18799439756023</v>
+        <v>196.0181193845648</v>
       </c>
       <c r="K6" t="n">
-        <v>206.807889080019</v>
+        <v>351.2056772682103</v>
       </c>
       <c r="L6" t="n">
-        <v>435.4881151702609</v>
+        <v>579.885903358452</v>
       </c>
       <c r="M6" t="n">
-        <v>721.7040210404023</v>
+        <v>1044.767135059137</v>
       </c>
       <c r="N6" t="n">
-        <v>1029.903855192665</v>
+        <v>1352.9669692114</v>
       </c>
       <c r="O6" t="n">
-        <v>1289.626696518329</v>
+        <v>1612.689810537064</v>
       </c>
       <c r="P6" t="n">
-        <v>1754.507928219015</v>
+        <v>1801.807222027794</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871458</v>
+        <v>1878.308006871456</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871458</v>
+        <v>1878.308006871456</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856707</v>
+        <v>1736.823381856706</v>
       </c>
       <c r="T6" t="n">
-        <v>1736.823381856707</v>
+        <v>1541.566225055443</v>
       </c>
       <c r="U6" t="n">
-        <v>1508.712866495816</v>
+        <v>1313.455709694552</v>
       </c>
       <c r="V6" t="n">
-        <v>1273.560758264073</v>
+        <v>1078.303601462809</v>
       </c>
       <c r="W6" t="n">
-        <v>1019.323401535872</v>
+        <v>824.0662447346078</v>
       </c>
       <c r="X6" t="n">
-        <v>811.4719013303391</v>
+        <v>616.214744529075</v>
       </c>
       <c r="Y6" t="n">
-        <v>603.7116025653852</v>
+        <v>408.4544457641211</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.5413632062774</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="C7" t="n">
-        <v>470.5413632062774</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="D7" t="n">
-        <v>470.5413632062774</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="E7" t="n">
-        <v>470.5413632062774</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="F7" t="n">
-        <v>470.5413632062774</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="G7" t="n">
-        <v>302.2947947173078</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2433373652804</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742916</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256562</v>
+        <v>45.01194249256554</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696029</v>
+        <v>187.0844868696027</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101291</v>
+        <v>424.4148644101288</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467499</v>
+        <v>685.0355944467494</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609269</v>
+        <v>944.8939624609263</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103175</v>
+        <v>1168.898929103174</v>
       </c>
       <c r="P7" t="n">
         <v>1337.053193890531</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552811</v>
+        <v>1370.03941055281</v>
       </c>
       <c r="R7" t="n">
-        <v>1255.760791512126</v>
+        <v>1296.051824401977</v>
       </c>
       <c r="S7" t="n">
-        <v>1255.760791512126</v>
+        <v>1094.890176749796</v>
       </c>
       <c r="T7" t="n">
-        <v>1242.632572347142</v>
+        <v>870.8003433562887</v>
       </c>
       <c r="U7" t="n">
-        <v>1242.632572347142</v>
+        <v>581.6678183802766</v>
       </c>
       <c r="V7" t="n">
-        <v>987.9480841412553</v>
+        <v>326.9833301743897</v>
       </c>
       <c r="W7" t="n">
-        <v>698.5309141042947</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="X7" t="n">
-        <v>470.5413632062774</v>
+        <v>37.56616013742913</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.5413632062774</v>
+        <v>37.56616013742913</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042.715325395395</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>1042.715325395395</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>1042.715325395395</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4820,7 +4820,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656475</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1042.715325395395</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694942</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>570.4526592426274</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>401.5164763147205</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>251.3998369023848</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>251.3998369023848</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="F10" t="n">
-        <v>104.5098894044744</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="G10" t="n">
-        <v>104.5098894044744</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>104.5098894044744</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485143</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426274</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>570.4526592426274</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>570.4526592426274</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>570.4526592426274</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2040.546330724785</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784373</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1127.224630526824</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793782</v>
+        <v>741.4363779285795</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>741.4363779285794</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>326.8206133697249</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656966</v>
+        <v>695.1615405656969</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484044</v>
@@ -5063,28 +5063,28 @@
         <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345381</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926745</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926745</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3241.957856583174</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.18920131306</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.72344305198</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2125.584111076168</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929925</v>
+        <v>488.5008422034059</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749521</v>
+        <v>996.4574081599343</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.287366026812</v>
+        <v>365.7608055583756</v>
       </c>
       <c r="C13" t="n">
-        <v>834.351183098905</v>
+        <v>196.8246226304688</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865693</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041762</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648148</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925585</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925585</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1835.852134360025</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1835.852134360025</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1835.852134360025</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.434964323065</v>
+        <v>814.5429355999231</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.445413425047</v>
+        <v>586.5533847019058</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.652834281517</v>
+        <v>365.7608055583756</v>
       </c>
     </row>
     <row r="14">
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048576</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>150.8995423128889</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713841</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>454.6048385560546</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2407.167168654615</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.312334309519</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2004.71086933246</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1715.635642676658</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630041</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6470,28 +6470,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8772357154528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>274.8772357154528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797742</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>198.0274703142539</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,22 +7549,22 @@
         <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7609,7 +7609,7 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
         <v>695.5020655703112</v>
@@ -7640,22 +7640,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>144.4363991805479</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457084</v>
@@ -8149,10 +8149,10 @@
         <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777606</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496433</v>
+        <v>15.76852197496444</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>19.76531636483514</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>180.4700260914589</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>278.5493133433895</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>47.7770644533132</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438823</v>
+        <v>40.00791436438828</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878345</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.5464391156098</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>67.33400740195425</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.41016660977904</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587080978</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>84.77391660562026</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922721</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624214</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.45968844823108</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345294903</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294967</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.97729093373237</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.845153664064696</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.0397529241854</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823176</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>67.54000767002825</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.7370056418718</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864965</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194197</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>928545.3786082545</v>
+        <v>928545.3786082544</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321419</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321419</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371983</v>
+        <v>366294.6221371981</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
@@ -26335,7 +26335,7 @@
         <v>403573.2998450032</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="K2" t="n">
         <v>403573.299845003</v>
@@ -26344,13 +26344,13 @@
         <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.299845003</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26366,16 +26366,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912904</v>
+        <v>312214.8578912899</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972647</v>
+        <v>175413.4991972649</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354578</v>
+        <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770428</v>
+        <v>189308.2687704285</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030186</v>
+        <v>72591.00846030182</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925494</v>
+        <v>43280.54279925499</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273097</v>
+        <v>81897.40371273088</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202344</v>
+        <v>49839.57413202347</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>194111.7371403466</v>
+        <v>194111.7371403468</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
         <v>13501.3895521962</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="I4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184276</v>
-      </c>
       <c r="K4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184273</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638311</v>
+        <v>79427.52208638308</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738574</v>
+        <v>85137.4850673857</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-515292.6664310303</v>
+        <v>-515292.6664310304</v>
       </c>
       <c r="C6" t="n">
-        <v>-175233.2321858782</v>
+        <v>-175233.2321858779</v>
       </c>
       <c r="D6" t="n">
-        <v>-2985.617402905889</v>
+        <v>-2985.61740290618</v>
       </c>
       <c r="E6" t="n">
-        <v>-45921.40983696169</v>
+        <v>-46142.54115093619</v>
       </c>
       <c r="F6" t="n">
-        <v>99535.69313882534</v>
+        <v>99500.95521338897</v>
       </c>
       <c r="G6" t="n">
-        <v>288843.9619092533</v>
+        <v>288809.2239838174</v>
       </c>
       <c r="H6" t="n">
-        <v>288843.9619092532</v>
+        <v>288809.2239838176</v>
       </c>
       <c r="I6" t="n">
-        <v>288843.9619092533</v>
+        <v>288809.2239838176</v>
       </c>
       <c r="J6" t="n">
-        <v>239779.0171807086</v>
+        <v>239744.2792552728</v>
       </c>
       <c r="K6" t="n">
-        <v>216252.9534489513</v>
+        <v>216218.2155235155</v>
       </c>
       <c r="L6" t="n">
-        <v>245563.4191099981</v>
+        <v>245528.6811845624</v>
       </c>
       <c r="M6" t="n">
-        <v>206946.558196522</v>
+        <v>206911.8202710865</v>
       </c>
       <c r="N6" t="n">
-        <v>239004.3877772298</v>
+        <v>238969.6498517939</v>
       </c>
       <c r="O6" t="n">
-        <v>288843.9619092533</v>
+        <v>288809.2239838174</v>
       </c>
       <c r="P6" t="n">
-        <v>288843.9619092532</v>
+        <v>288809.2239838175</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.482815996219201e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074283005</v>
+        <v>791.2679074283001</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26790,13 +26790,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178645</v>
+        <v>469.5770017178641</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490099</v>
+        <v>969.2208239490095</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153958</v>
+        <v>242.7979665153955</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892389</v>
+        <v>142.796984689239</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974119</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515446</v>
+        <v>282.0514145515442</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821743</v>
+        <v>171.0078303821747</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515443</v>
+        <v>282.0514145515442</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821746</v>
+        <v>171.0078303821747</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515446</v>
+        <v>282.0514145515442</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821743</v>
+        <v>171.0078303821747</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>351.5228849393827</v>
       </c>
       <c r="H2" t="n">
         <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.5285338536984</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>82.70191410385615</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>29.75633136915502</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="4">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>41.6077186194016</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378015</v>
       </c>
       <c r="U4" t="n">
-        <v>195.527277963962</v>
+        <v>98.73949432713032</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027105</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127884</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>177.729237249398</v>
+        <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>100.784111096747</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>4.467841658844435</v>
+        <v>108.2433890666755</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.79797317841044</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224379</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3045852332498</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.5409427785071</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>112.5404054555728</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>39.88812256095387</v>
       </c>
       <c r="S7" t="n">
-        <v>199.1500311756599</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.851998086238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.241199726252</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>284.5101778202797</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.193308483574981</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>157.4004377856126</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>52.06612339579393</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-9.831888791845538e-13</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274573</v>
+        <v>3.180976512274571</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633198</v>
+        <v>32.57717570633196</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894656</v>
+        <v>122.6345969894655</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586643</v>
+        <v>269.9814052586641</v>
       </c>
       <c r="K5" t="n">
-        <v>404.632141023247</v>
+        <v>404.6321410232467</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607701</v>
+        <v>501.9819509607698</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109329</v>
+        <v>558.5516420109326</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264331</v>
+        <v>567.5895915264329</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325028</v>
+        <v>535.9587563325025</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857242</v>
+        <v>457.4283986857239</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.509677339891</v>
+        <v>343.5096773398908</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391678</v>
+        <v>199.8170158391677</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345689</v>
+        <v>72.48650227345685</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248195</v>
+        <v>13.92472468248194</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819658</v>
+        <v>0.2544781209819656</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,46 +31358,46 @@
         <v>1.701972480128797</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808602</v>
+        <v>16.43747105808601</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917132</v>
+        <v>58.59861389917129</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142738</v>
+        <v>160.7990754142737</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829032</v>
+        <v>274.8312315829031</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437549</v>
+        <v>369.5445071437547</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484237</v>
+        <v>431.2410095484235</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734981</v>
+        <v>442.6546758734978</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138021</v>
+        <v>404.9425488138018</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888052</v>
+        <v>325.002095788805</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301251</v>
+        <v>217.255294130125</v>
       </c>
       <c r="R6" t="n">
         <v>105.6715895995757</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923444</v>
+        <v>31.61339233923442</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571773</v>
+        <v>6.860143461571769</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1119718736926841</v>
+        <v>0.111971873692684</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.426876554378902</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893243</v>
+        <v>12.68622972893242</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168555</v>
+        <v>42.91006947168552</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945884</v>
+        <v>100.8801723945883</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087488</v>
+        <v>165.7771124087487</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210234</v>
+        <v>212.1376288210233</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014128</v>
+        <v>223.6693857014127</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350916</v>
+        <v>218.3510276350915</v>
       </c>
       <c r="O7" t="n">
-        <v>201.682515158938</v>
+        <v>201.6825151589379</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496083</v>
+        <v>172.5742334496082</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216734</v>
+        <v>119.4814540216733</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689136</v>
+        <v>64.15755852689132</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131232</v>
+        <v>24.8665668613123</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709855</v>
+        <v>6.096654368709851</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884931</v>
+        <v>0.07782963023884927</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193139</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>171.333665020608</v>
+        <v>156.4572543240563</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821484</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.563237034051</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4971006716334</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,7 +33269,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33755,7 +33755,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33971,28 +33971,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>156.5956149270087</v>
       </c>
       <c r="M4" t="n">
         <v>187.52558716632</v>
@@ -34869,10 +34869,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068223</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197798</v>
+        <v>88.93550073197781</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782665</v>
+        <v>184.5422899782662</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907828</v>
+        <v>266.2155359907825</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836602</v>
+        <v>328.2054087836599</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298422</v>
+        <v>338.1765279298419</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108161</v>
+        <v>305.8605449108157</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304547</v>
+        <v>226.1954029304544</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654415</v>
+        <v>121.2039874654413</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.96144874760714</v>
+        <v>160.0524840880159</v>
       </c>
       <c r="K6" t="n">
-        <v>136.9897926085442</v>
+        <v>156.7551089733792</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638807</v>
+        <v>230.9901273638806</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264054</v>
+        <v>469.5770017178641</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901648</v>
+        <v>311.3129637901645</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693577</v>
+        <v>262.3463043693574</v>
       </c>
       <c r="P6" t="n">
-        <v>469.5770017178645</v>
+        <v>191.0276883744748</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.0505844974168</v>
+        <v>77.27352004410346</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915624</v>
+        <v>7.520992277915568</v>
       </c>
       <c r="K7" t="n">
-        <v>143.507620582866</v>
+        <v>143.5076205828659</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813396</v>
+        <v>239.7276540813394</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632534</v>
+        <v>263.2532626632533</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143202</v>
+        <v>262.4832000143201</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729777</v>
+        <v>226.2676430729776</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145018</v>
+        <v>169.8527927145017</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997899</v>
+        <v>33.31941076997893</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526472</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073381</v>
+        <v>17.90287454418211</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601301</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507177</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>57.6594740049667</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191314</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,28 +37619,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
